--- a/tests/Integration/Importer/resources/invalid.xlsx
+++ b/tests/Integration/Importer/resources/invalid.xlsx
@@ -152,11 +152,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P15" activeCellId="0" sqref="P15"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.14"/>
   </cols>
